--- a/jpcore-r4/feature/swg3-location/ValueSet-jp-medication-example-methodcomment-vs.xlsx
+++ b/jpcore-r4/feature/swg3-location/ValueSet-jp-medication-example-methodcomment-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Medication Ex" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Medication Example MethodComment</t>
+    <t>JP Core Medication Example MethodComment ValueSet</t>
   </si>
   <si>
     <t>Status</t>
